--- a/docs/Collector1/Collector1_06.08.24_output.xlsx
+++ b/docs/Collector1/Collector1_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,72 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1081 +510,1355 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730744308.743129</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1730744311.9552386</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730744308.743129.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730744311.9552386.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>278.73</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>279.38</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730744319.4097822</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1730744322.8131788</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730744319.4097822.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730744322.8131788.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>128.53</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>128.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730744329.1804364</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>1730744332.9686785</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730744329.1804364.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730744332.9686785.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>6425.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>6432.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730744339.17023</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730744339.17023.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>496.35</v>
       </c>
-      <c r="J6" t="n">
-        <v>496.35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="M6" t="n">
+        <v>495.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730744349.778318</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1730744352.8988087</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730744349.778318.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730744352.8988087.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>225.18</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>226.37</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>1.189999999999998</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730744356.9512184</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>1730744364.2505233</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730744356.9512184.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730744364.2505233.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>1006.4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>1007.4</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730744365.4793322</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>1730744368.159419</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/CNY1730744365.4793322.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>./test_images/CNY1730744368.159419.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>11.83</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>11.873</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>0.04299999999999926</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730744373.1705885</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/CNY1730744373.1705885.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>11.911</v>
       </c>
-      <c r="J10" t="n">
-        <v>11.911</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="M10" t="n">
+        <v>11.916</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.005000000000000782</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730744380.5654883</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>1730744381.7331676</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730744380.5654883.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730744381.7331676.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>124.56</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>125.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>0.9399999999999977</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730744386.716022</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>1730744393.2734458</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730744386.716022.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730744393.2734458.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>158.72</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>159.78</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>1.060000000000002</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730744396.4821236</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1730744399.0000331</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744396.4821236.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744399.0000331.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>48.595</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>49.115</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>0.5200000000000031</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730744400.3064654</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>1730744405.2277617</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744400.3064654.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744405.2277617.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>48.77</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>49.105</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>0.3349999999999937</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730744408.213563</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>1730744413.2363534</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730744408.213563.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730744413.2363534.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>1383.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>1368.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>-15.20000000000005</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-1.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730744418.1865985</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>1730744422.74513</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730744418.1865985.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730744422.74513.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>59.59</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>59.74</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730744429.9953065</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730744429.9953065.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>96.12</v>
       </c>
-      <c r="J17" t="n">
-        <v>96.12</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="M17" t="n">
+        <v>96.13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730744439.609996</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SELG1730744439.609996.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>55.97</v>
       </c>
-      <c r="J18" t="n">
-        <v>55.97</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="M18" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.519999999999996</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730744449.7706025</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>1730744452.188399</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730744449.7706025.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730744452.188399.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>143.3</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>143.98</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>0.6799999999999784</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730744458.2206957</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>1730744461.6743817</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730744458.2206957.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730744461.6743817.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>19.91</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>19.932</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>0.02199999999999847</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730744469.1606088</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>1730744471.633957</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730744469.1606088.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730744471.633957.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>666.35</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>669.1</v>
       </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
         <v>2.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730744477.4764037</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730744477.4764037.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>151.63</v>
       </c>
-      <c r="J22" t="n">
-        <v>151.63</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="M22" t="n">
+        <v>149.36</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-2.269999999999982</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730744488.9263475</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>1730744492.885406</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/FEES1730744488.9263475.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>./test_images/FEES1730744492.885406.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>0.09556000000000001</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>0.09546</v>
       </c>
-      <c r="K23" t="n">
+      <c r="N23" t="n">
         <v>-0.0001000000000000029</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730744499.2412438</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>1730744502.5465846</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744499.2412438.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744502.5465846.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>2905.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>2905.85</v>
       </c>
-      <c r="K24" t="n">
+      <c r="N24" t="n">
         <v>0.4499999999998181</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1602,6 +1896,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1610,11 +1919,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04299999999999926</v>
+        <v>0.04800000000000004</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.02400000000000002</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1628,6 +1946,15 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.4274999999999984</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1641,6 +1968,15 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.02199999999999847</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1654,6 +1990,15 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>1.060000000000002</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1662,10 +2007,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -1680,6 +2034,15 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.6799999999999784</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1693,6 +2056,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1701,10 +2073,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0.519999999999996</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.519999999999996</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.9299999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.93</v>
       </c>
     </row>
     <row r="10">
@@ -1719,6 +2100,15 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.6499999999999773</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1727,10 +2117,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="12">
@@ -1745,6 +2144,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1753,10 +2161,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-2.269999999999982</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.269999999999982</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="14">
@@ -1771,6 +2188,15 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.4499999999998181</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1784,6 +2210,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.1499999999999986</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1797,6 +2232,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>1.189999999999998</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1810,6 +2254,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1823,6 +2276,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.9399999999999977</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1836,6 +2298,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1849,6 +2320,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.0001000000000000029</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1862,6 +2342,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>-15.20000000000005</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1875,6 +2364,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
